--- a/docs/feinkonzept/user stories.xlsx
+++ b/docs/feinkonzept/user stories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tony\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/d.kreismann/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25D3B7E-5881-48A0-9009-F2FADF00E3DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5B1805-739B-9F4B-96B7-ACE7D4A38817}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E529245D-C0EB-4295-8141-742229C30A78}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{E529245D-C0EB-4295-8141-742229C30A78}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -619,6 +619,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Als</t>
     </r>
     <r>
@@ -629,7 +637,743 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> IT-Administrator</t>
+      <t xml:space="preserve"> Schulleiter 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>möchte ich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> die Notendichte fach- und klassenbezogen drucken können
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>damit ich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> diese analog zur Verfügung habe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Als</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Schulleiter 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">möchte ich </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">die Endnoten fach- und klassenbezogen drucken können.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>damit ich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> diese analog zur Verfügung habe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Als</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Fachlehrer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>möchte ich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> die Klassenübersicht fach- und lehrerbezogen drucken können
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>damit ich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> diese analog zur Verfügung habe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Als</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Klassenlehrer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>möchte ich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> die Klassenübersicht fach- und lehrerbezogen drucken können
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>damit ich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> diese analog zur Verfügung habe</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Als</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IT-Administrator
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>möchte ich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> die Klassenübersicht fach- und lehrerbezogen drucken können
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>damit ich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> die Funktionalität überprüfen kann</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Als</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IT-Administrator 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>möchte ich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> die Notendichte fach- und klassenbezogen drucken können
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>damit ich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> die Funktionalität überprüfen kann</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Als</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IT-Administrator
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>möchte ich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> die Endnoten fach- und klassenbezogen drucken können.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">damit ich </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>die Funktionalität überprüfen kann</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Als</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Verwaltungslehrer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>möchte ich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> die Klassen verwalten können
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>damit ich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Klassen anlegen und deren Namen ändern kann</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Als</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Verwaltungslehrer
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>möchte ich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> die Schülerdaten verwalten können
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>damit ich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> diese löschen, zuordnen, aufnehmen und deren Namen ändern kann</t>
+    </r>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>DHCP</t>
+  </si>
+  <si>
+    <t>Anmeldung am Verwaltungsnetzwerk</t>
+  </si>
+  <si>
+    <t>Rollenbeschreibung</t>
+  </si>
+  <si>
+    <t>Funktionalität</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Als</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IT-Administrator 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>möchte ich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> die vorhandene Notenverwaltung (die in Form einer Excel Tabelle besteht) einmalig importieren können
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">damit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>das Grundschulpersonal auf die Notentabelle, die Lehrerliste sowie auf die Gesamtnotenliste aufbauen kann</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Als</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IT-Administrator </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+möchte ich </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>überprüfen ob der DHCP Dienst des Servers funktioniert</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+damit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>die IP-Adressen automatisch zugewiesen werden können</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Als</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IT-Administrator </t>
     </r>
     <r>
       <rPr>
@@ -651,7 +1395,66 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> vollen Zugriff auf alle Virtuelle Maschinen haben</t>
+      <t xml:space="preserve"> überprüfen ob der DNS Server funktioniert</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+damit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>die Namensauflösung der Domain ordentlich funktioniert</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Als</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> IT-Administrator</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+möchte ich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vollen Zugriff auf die Datenbank haben</t>
     </r>
     <r>
       <rPr>
@@ -673,7 +1476,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ein Backup dieser machen kann</t>
+      <t>ein automatisiertes Backup der Datenbank vornehmen kann</t>
     </r>
   </si>
   <si>
@@ -710,7 +1513,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> vollen Zugriff auf die Datenbank haben</t>
+      <t xml:space="preserve"> vollen Zugriff auf alle Virtuelle Maschinen haben</t>
     </r>
     <r>
       <rPr>
@@ -732,620 +1535,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>ein Backup der Datenbank vornehmen kann</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Als</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Schulleiter 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>möchte ich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> die Notendichte fach- und klassenbezogen drucken können
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>damit ich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> diese analog zur Verfügung habe</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Als</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Schulleiter 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">möchte ich </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">die Endnoten fach- und klassenbezogen drucken können.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>damit ich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> diese analog zur Verfügung habe</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Als</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Fachlehrer
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>möchte ich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> die Klassenübersicht fach- und lehrerbezogen drucken können
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>damit ich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> diese analog zur Verfügung habe</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Als</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Klassenlehrer
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>möchte ich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> die Klassenübersicht fach- und lehrerbezogen drucken können
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>damit ich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> diese analog zur Verfügung habe</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Als</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IT-Administrator
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>möchte ich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> die Klassenübersicht fach- und lehrerbezogen drucken können
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>damit ich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> die Funktionalität überprüfen kann</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Als</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IT-Administrator 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>möchte ich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> die Notendichte fach- und klassenbezogen drucken können
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>damit ich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> die Funktionalität überprüfen kann</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Als</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IT-Administrator
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>möchte ich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> die Endnoten fach- und klassenbezogen drucken können.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">damit ich </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>die Funktionalität überprüfen kann</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Als</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Verwaltungslehrer
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>möchte ich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> die Klassen verwalten können
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>damit ich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Klassen anlegen und deren Namen ändern kann</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Als</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Verwaltungslehrer
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>möchte ich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> die Schülerdaten verwalten können
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>damit ich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> diese löschen, zuordnen, aufnehmen und deren Namen ändern kann</t>
-    </r>
-  </si>
-  <si>
-    <t>DNS</t>
-  </si>
-  <si>
-    <t>DHCP</t>
-  </si>
-  <si>
-    <t>Anmeldung am Verwaltungsnetzwerk</t>
+      <t>ein tägliches Backup dieser machen kann</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1381,7 +1572,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>überprüfen ob der DHCP Dienst des Servers funktioniert</t>
+      <t>Benutzergruppen im Verwaltungsnetz einsehen und hinterlegen können</t>
     </r>
     <r>
       <rPr>
@@ -1403,11 +1594,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> diesen nutzen kann</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t xml:space="preserve"> diesen die Rechte zuweisen kann</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Als</t>
     </r>
     <r>
@@ -1418,51 +1617,51 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> IT-Administrator </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-möchte ich </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Benutzergruppen im Verwaltungsnetz einsehen können</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-damit ich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> deren Richtigkeit überprüfen kann</t>
+      <t xml:space="preserve"> IT-Administrator 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>möchte ich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nutzer im Verwaltungsnetz einsehen und hinterlegen können 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>damit ich</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dies den Benutzergruppen zuordnen kann</t>
     </r>
   </si>
   <si>
@@ -1507,7 +1706,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Nutzer im Verwaltungsnetz einsehen können 
+      <t xml:space="preserve"> alle Module der Notenverwaltungssoftware sehen können
 </t>
     </r>
     <r>
@@ -1529,206 +1728,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> deren Richtigkeit überprüfen kann</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Als</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IT-Administrator </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-möchte ich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> überprüfen ob der DNS Server funktioniert</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-damit ich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> den diesen nutzen kann</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Als</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IT-Administrator 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>möchte ich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> alle Module der Notenverwaltungssoftware sehen können
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>damit ich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> der Funktionalität überprüfen kann</t>
-    </r>
-  </si>
-  <si>
-    <t>Rollenbeschreibung</t>
-  </si>
-  <si>
-    <t>Funktionalität</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Als</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> IT-Administrator 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>möchte ich</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> die vorhandene Notenverwaltung (die in Form einer Excel Tabelle besteht) einmalig importieren können
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">damit </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>das Grundschulpersonal auf die Notentabelle, die Lehrerliste sowie auf die Gesamtnotenliste aufbauen kann</t>
+      <t xml:space="preserve"> deren Funktionalität überprüfen kann</t>
     </r>
   </si>
 </sst>
@@ -1821,28 +1821,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1851,25 +1836,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift 1" xfId="1" builtinId="16"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1885,7 +1885,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2183,45 +2183,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D3F2B0-A47B-43CB-B413-F613BE116033}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
-    <col min="3" max="4" width="98.5703125" customWidth="1"/>
+    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="3" max="4" width="98.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="16"/>
+      <c r="C1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="11"/>
     </row>
-    <row r="2" spans="1:4" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="17" t="s">
+    <row r="2" spans="1:4" ht="23" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:4" ht="45" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -2230,192 +2230,192 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>42</v>
+      <c r="C4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="6" t="s">
+    <row r="5" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="14"/>
     </row>
-    <row r="6" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12"/>
+      <c r="B6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="5"/>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="14"/>
     </row>
-    <row r="8" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="4" t="s">
+    <row r="8" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12"/>
       <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="14"/>
     </row>
-    <row r="12" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+    <row r="13" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
       <c r="B13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="9" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="7" t="s">
+    <row r="14" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
-        <v>39</v>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="4" t="s">
-        <v>40</v>
+    <row r="15" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+    <row r="16" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
       <c r="B16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9" t="s">
-        <v>24</v>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+    <row r="17" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="13"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="14"/>
+    </row>
+    <row r="20" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="13"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="13"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="D21" s="6" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="12" t="s">
+    <row r="22" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="11" t="s">
-        <v>45</v>
+      <c r="C22" s="8"/>
+      <c r="D22" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
